--- a/demo_utils/client/excel3/nodeWaitTime_jobsNumber_v12_500000_test.xlsx
+++ b/demo_utils/client/excel3/nodeWaitTime_jobsNumber_v12_500000_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Routing-Monitor-Docker-Request-\demo_utils\client\excel3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4580CC-A40A-4954-AB62-ACEFE8C61B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC07585-704A-485D-A379-C09DE030CE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6504" yWindow="2724" windowWidth="20232" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14772" yWindow="2388" windowWidth="20232" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -404,8 +404,8 @@
     <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.296875" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" customWidth="1"/>
     <col min="6" max="6" width="8.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
